--- a/results/I3_N5_M3_T30_C150_DepLowerLeft_s1_mean_res.xlsx
+++ b/results/I3_N5_M3_T30_C150_DepLowerLeft_s1_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>205.5975775878923</v>
+        <v>196.7248294795377</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1570000648498535</v>
+        <v>0.04600000381469727</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.4975775878919</v>
+        <v>42.72482947953772</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.717738030053669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.717738030053669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47.43000000000031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>103.67</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,17 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -885,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25.31430901573738</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17.87773091595748</v>
+        <v>12.58460255878718</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>18.66770452339111</v>
+        <v>10.98279108423719</v>
       </c>
     </row>
     <row r="6">
@@ -917,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>25.04208713267367</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -955,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,20 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>128.4420000000003</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="4">
@@ -1065,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>43.19900000000052</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="5">
@@ -1076,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>77.22299999999912</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="6">
@@ -1087,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>154.7430000000004</v>
+        <v>146.8</v>
       </c>
     </row>
     <row r="7">
@@ -1098,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>142.523000000001</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>142.523000000001</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="9">
@@ -1120,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>128.4420000000003</v>
+        <v>146.8</v>
       </c>
     </row>
     <row r="10">
@@ -1131,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>154.743</v>
+        <v>58.2</v>
       </c>
     </row>
   </sheetData>
@@ -1200,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>4.743000000000031</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1258,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4.743</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4">
@@ -1269,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5.624000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1305,7 +1280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1330,17 +1305,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
